--- a/public/data/061615.xlsx
+++ b/public/data/061615.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data.csv" sheetId="1" r:id="rId1"/>
@@ -22,46 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="47">
-  <si>
-    <t>감염자num</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Hospital_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="48">
   <si>
     <t>lat</t>
   </si>
   <si>
     <t>lon</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">감염 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from</t>
-    </r>
   </si>
   <si>
     <t>M</t>
@@ -77,9 +43,6 @@
   </si>
   <si>
     <t>서울 천호 365열린의원</t>
-  </si>
-  <si>
-    <t>사망</t>
   </si>
   <si>
     <t>아산둔포 서울의원</t>
@@ -183,6 +146,27 @@
   <si>
     <t>kangdong</t>
   </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>hospital_name</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -279,19 +263,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -302,6 +295,10 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -312,6 +309,10 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,46 +644,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="7" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="25" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -690,21 +696,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F2">
         <v>37.008634000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>127.073837</v>
       </c>
       <c r="H2" s="2">
@@ -716,21 +722,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F3">
         <v>37.008634000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="9">
         <v>127.073837</v>
       </c>
       <c r="H3" s="2">
@@ -745,21 +751,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F4">
         <v>37.008634000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>127.073837</v>
       </c>
       <c r="H4" s="2">
@@ -768,8 +774,8 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -777,21 +783,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>37.008634000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>127.073837</v>
       </c>
       <c r="H5" s="2">
@@ -806,21 +812,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F6">
         <v>37.540523999999998</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>127.124972</v>
       </c>
       <c r="H6" s="2">
@@ -835,21 +841,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>37.008634000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="9">
         <v>127.073837</v>
       </c>
       <c r="H7" s="2">
@@ -858,8 +864,8 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -867,21 +873,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F8">
         <v>37.008634000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="9">
         <v>127.073837</v>
       </c>
       <c r="H8" s="2">
@@ -893,21 +899,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F9">
         <v>36.928528</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <v>127.03825500000001</v>
       </c>
       <c r="H9" s="2">
@@ -919,21 +925,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>37.008634000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="9">
         <v>127.073837</v>
       </c>
       <c r="H10" s="2">
@@ -948,28 +954,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F11">
         <v>37.008634000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <v>127.073837</v>
       </c>
       <c r="H11" s="2">
         <v>42153</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -977,21 +983,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F12">
         <v>37.008634000000001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="9">
         <v>127.073837</v>
       </c>
       <c r="H12" s="2">
@@ -1006,21 +1012,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F13">
         <v>37.008634000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <v>127.073837</v>
       </c>
       <c r="H13" s="2">
@@ -1035,21 +1041,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F14">
         <v>37.008634000000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="9">
         <v>127.073837</v>
       </c>
       <c r="H14" s="2">
@@ -1064,21 +1070,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F15">
         <v>37.008634000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="9">
         <v>127.073837</v>
       </c>
       <c r="H15" s="2">
@@ -1093,21 +1099,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F16">
         <v>37.008634000000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="9">
         <v>127.073837</v>
       </c>
       <c r="H16" s="2">
@@ -1122,21 +1128,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F17">
         <v>37.008634000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="9">
         <v>127.073837</v>
       </c>
       <c r="H17" s="2">
@@ -1151,21 +1157,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F18">
         <v>37.008634000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="9">
         <v>127.073837</v>
       </c>
       <c r="H18" s="2">
@@ -1180,21 +1186,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F19">
         <v>37.008634000000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="9">
         <v>127.073837</v>
       </c>
       <c r="H19" s="2">
@@ -1209,21 +1215,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F20">
         <v>37.008634000000001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="9">
         <v>127.073837</v>
       </c>
       <c r="H20" s="2">
@@ -1238,21 +1244,21 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F21">
         <v>37.008634000000001</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="9">
         <v>127.073837</v>
       </c>
       <c r="H21" s="2">
@@ -1267,21 +1273,21 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F22">
         <v>37.008634000000001</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="9">
         <v>127.073837</v>
       </c>
       <c r="H22" s="2">
@@ -1296,21 +1302,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F23">
         <v>37.008634000000001</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="9">
         <v>127.073837</v>
       </c>
       <c r="H23" s="2">
@@ -1325,21 +1331,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F24">
         <v>36.306497</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="9">
         <v>127.342583</v>
       </c>
       <c r="H24" s="2">
@@ -1348,8 +1354,8 @@
       <c r="I24">
         <v>16</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
+      <c r="J24" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1357,21 +1363,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F25">
         <v>36.306497</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="9">
         <v>127.342583</v>
       </c>
       <c r="H25" s="2">
@@ -1380,8 +1386,8 @@
       <c r="I25">
         <v>16</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>12</v>
+      <c r="J25" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1389,21 +1395,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F26">
         <v>37.008634000000001</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="9">
         <v>127.073837</v>
       </c>
       <c r="H26" s="2">
@@ -1412,8 +1418,8 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>12</v>
+      <c r="J26" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1421,21 +1427,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F27">
         <v>37.008634000000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="9">
         <v>127.073837</v>
       </c>
       <c r="H27" s="2">
@@ -1450,21 +1456,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F28">
         <v>37.008634000000001</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="9">
         <v>127.073837</v>
       </c>
       <c r="H28" s="2">
@@ -1479,21 +1485,21 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F29">
         <v>37.008634000000001</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="9">
         <v>127.073837</v>
       </c>
       <c r="H29" s="2">
@@ -1502,8 +1508,8 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>12</v>
+      <c r="J29" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1511,21 +1517,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F30">
         <v>37.008634000000001</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="9">
         <v>127.073837</v>
       </c>
       <c r="H30" s="2">
@@ -1540,21 +1546,21 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F31">
         <v>36.308539000000003</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="9">
         <v>127.369981</v>
       </c>
       <c r="H31" s="2">
@@ -1569,21 +1575,21 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F32">
         <v>36.306497</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="9">
         <v>127.342583</v>
       </c>
       <c r="H32" s="2">
@@ -1598,21 +1604,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F33">
         <v>37.008634000000001</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="9">
         <v>127.073837</v>
       </c>
       <c r="H33" s="2">
@@ -1627,21 +1633,21 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F34">
         <v>37.008634000000001</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="9">
         <v>127.073837</v>
       </c>
       <c r="H34" s="2">
@@ -1656,21 +1662,21 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F35">
         <v>37.008634000000001</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="9">
         <v>127.073837</v>
       </c>
       <c r="H35" s="2">
@@ -1685,21 +1691,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F36">
         <v>37.488387000000003</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H36" s="2">
@@ -1714,21 +1720,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F37">
         <v>36.306497</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="9">
         <v>127.342583</v>
       </c>
       <c r="H37" s="2">
@@ -1737,8 +1743,8 @@
       <c r="I37">
         <v>16</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>12</v>
+      <c r="J37" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1746,28 +1752,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F38">
         <v>37.008634000000001</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="9">
         <v>127.073837</v>
       </c>
       <c r="H38" s="2">
         <v>42160</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1775,21 +1781,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F39">
         <v>36.308539000000003</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="9">
         <v>127.369981</v>
       </c>
       <c r="H39" s="2">
@@ -1798,8 +1804,8 @@
       <c r="I39">
         <v>16</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>12</v>
+      <c r="J39" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1807,28 +1813,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F40">
         <v>37.008634000000001</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="9">
         <v>127.073837</v>
       </c>
       <c r="H40" s="2">
         <v>42160</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1836,28 +1842,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F41">
         <v>37.008634000000001</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="9">
         <v>127.073837</v>
       </c>
       <c r="H41" s="2">
         <v>42160</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1865,21 +1871,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F42">
         <v>37.488387000000003</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H42" s="2">
@@ -1894,21 +1900,21 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F43">
         <v>37.008634000000001</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="9">
         <v>127.073837</v>
       </c>
       <c r="H43" s="2">
@@ -1920,21 +1926,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F44">
         <v>37.008634000000001</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="9">
         <v>127.073837</v>
       </c>
       <c r="H44" s="2">
@@ -1946,21 +1952,21 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F45">
         <v>37.008634000000001</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="9">
         <v>127.073837</v>
       </c>
       <c r="H45" s="2">
@@ -1972,21 +1978,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F46">
         <v>36.306497</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="9">
         <v>127.342583</v>
       </c>
       <c r="H46" s="2">
@@ -2001,21 +2007,21 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F47">
         <v>37.488387000000003</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H47" s="2">
@@ -2030,21 +2036,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>68</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F48">
         <v>37.488387000000003</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H48" s="2">
@@ -2053,8 +2059,8 @@
       <c r="I48">
         <v>14</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>12</v>
+      <c r="J48" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2062,21 +2068,21 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F49">
         <v>37.488387000000003</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H49" s="2">
@@ -2091,21 +2097,21 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>75</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F50">
         <v>37.488387000000003</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H50" s="2">
@@ -2120,21 +2126,21 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F51">
         <v>37.488387000000003</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H51" s="2">
@@ -2149,28 +2155,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F52">
         <v>37.008634000000001</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="9">
         <v>127.073837</v>
       </c>
       <c r="H52" s="2">
         <v>42161</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>12</v>
+      <c r="J52" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2178,21 +2184,21 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F53">
         <v>37.008634000000001</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="9">
         <v>127.073837</v>
       </c>
       <c r="H53" s="2">
@@ -2204,21 +2210,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>51</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F54">
         <v>37.008634000000001</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="9">
         <v>127.073837</v>
       </c>
       <c r="H54" s="2">
@@ -2230,21 +2236,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F55">
         <v>36.308539000000003</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="9">
         <v>127.369981</v>
       </c>
       <c r="H55" s="2">
@@ -2259,21 +2265,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>36</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F56">
         <v>37.488387000000003</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H56" s="2">
@@ -2285,21 +2291,21 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F57">
         <v>37.488387000000003</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H57" s="2">
@@ -2311,21 +2317,21 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F58">
         <v>37.488387000000003</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H58" s="2">
@@ -2337,21 +2343,21 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F59">
         <v>37.488387000000003</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H59" s="2">
@@ -2363,21 +2369,21 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>44</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F60">
         <v>37.488387000000003</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H60" s="2">
@@ -2389,21 +2395,21 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>37</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F61">
         <v>37.488387000000003</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H61" s="2">
@@ -2415,21 +2421,21 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>55</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F62">
         <v>37.488387000000003</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H62" s="2">
@@ -2441,21 +2447,21 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>32</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F63">
         <v>37.488387000000003</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H63" s="2">
@@ -2467,21 +2473,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F64">
         <v>37.488387000000003</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H64" s="2">
@@ -2493,29 +2499,29 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F65">
         <v>37.488387000000003</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H65" s="2">
         <v>42161</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>12</v>
+      <c r="J65" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2523,21 +2529,21 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>55</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F66">
         <v>37.488387000000003</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H66" s="2">
@@ -2549,21 +2555,21 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>42</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F67">
         <v>37.488387000000003</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H67" s="2">
@@ -2575,28 +2581,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F68">
         <v>37.488387000000003</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H68" s="2">
         <v>42162</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2604,21 +2610,21 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F69">
         <v>37.488387000000003</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H69" s="2">
@@ -2630,21 +2636,21 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C70">
         <v>57</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F70">
         <v>37.488387000000003</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H70" s="2">
@@ -2656,21 +2662,21 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>59</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F71">
         <v>37.488387000000003</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H71" s="2">
@@ -2682,21 +2688,21 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>40</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F72">
         <v>37.488387000000003</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H72" s="2">
@@ -2708,21 +2714,21 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>56</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F73">
         <v>37.488387000000003</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H73" s="2">
@@ -2734,21 +2740,21 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>65</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F74">
         <v>37.488387000000003</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H74" s="2">
@@ -2760,21 +2766,21 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F75">
         <v>37.488387000000003</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H75" s="2">
@@ -2786,21 +2792,21 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>63</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F76">
         <v>37.488387000000003</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H76" s="2">
@@ -2812,28 +2818,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F77">
         <v>37.488387000000003</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H77" s="2">
         <v>42162</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>12</v>
+      <c r="J77" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2841,21 +2847,21 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>63</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F78">
         <v>37.488387000000003</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H78" s="2">
@@ -2867,21 +2873,21 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>41</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F79">
         <v>37.488387000000003</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H79" s="2">
@@ -2893,21 +2899,21 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>24</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F80">
         <v>37.488387000000003</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H80" s="2">
@@ -2919,21 +2925,21 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>35</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F81">
         <v>37.488387000000003</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H81" s="2">
@@ -2945,28 +2951,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C82">
         <v>62</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F82">
         <v>37.488387000000003</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H82" s="2">
         <v>42162</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>12</v>
+      <c r="J82" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2974,21 +2980,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>83</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F83">
         <v>36.306497</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="9">
         <v>127.342583</v>
       </c>
       <c r="H83" s="2">
@@ -3003,21 +3009,21 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>65</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F84">
         <v>36.306497</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="9">
         <v>127.342583</v>
       </c>
       <c r="H84" s="2">
@@ -3026,8 +3032,8 @@
       <c r="I84">
         <v>16</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>12</v>
+      <c r="J84" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3035,31 +3041,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>80</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>38</v>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F85">
         <v>36.308539000000003</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="9">
         <v>127.369981</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="6">
         <v>42162</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>16</v>
       </c>
-      <c r="J85" s="5" t="s">
-        <v>12</v>
+      <c r="J85" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3067,21 +3073,21 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>66</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F86">
         <v>36.308539000000003</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="9">
         <v>127.369981</v>
       </c>
       <c r="H86" s="2">
@@ -3096,21 +3102,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>76</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F87">
         <v>36.308539000000003</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="9">
         <v>127.369981</v>
       </c>
       <c r="H87" s="2">
@@ -3125,21 +3131,21 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>78</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F88">
         <v>36.308539000000003</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="9">
         <v>127.369981</v>
       </c>
       <c r="H88" s="2">
@@ -3154,21 +3160,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F89">
         <v>37.518442999999998</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="9">
         <v>126.936635</v>
       </c>
       <c r="H89" s="2">
@@ -3183,21 +3189,21 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>59</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F90">
         <v>37.488387000000003</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H90" s="2">
@@ -3209,28 +3215,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>62</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F91">
         <v>37.488387000000003</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H91" s="2">
         <v>42163</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>12</v>
+      <c r="J91" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3238,21 +3244,21 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>49</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F92">
         <v>37.488387000000003</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H92" s="2">
@@ -3267,21 +3273,21 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C93">
         <v>27</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F93">
         <v>37.527126000000003</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="9">
         <v>127.10836</v>
       </c>
       <c r="H93" s="2">
@@ -3293,21 +3299,21 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F94">
         <v>37.216878000000001</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H94" s="2">
@@ -3322,21 +3328,21 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>71</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F95">
         <v>37.216878000000001</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H95" s="2">
@@ -3351,21 +3357,21 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C96">
         <v>76</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F96">
         <v>36.306497</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="9">
         <v>127.342583</v>
       </c>
       <c r="H96" s="2">
@@ -3380,21 +3386,21 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>42</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F97">
         <v>37.488387000000003</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H97" s="2">
@@ -3409,21 +3415,21 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C98">
         <v>46</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F98">
         <v>37.488387000000003</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H98" s="2">
@@ -3438,21 +3444,21 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>58</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F99">
         <v>37.488387000000003</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H99" s="2">
@@ -3461,8 +3467,8 @@
       <c r="I99">
         <v>14</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>12</v>
+      <c r="J99" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3470,21 +3476,21 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>48</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F100">
         <v>37.488387000000003</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H100" s="2">
@@ -3499,21 +3505,21 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>32</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F101">
         <v>37.488387000000003</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H101" s="2">
@@ -3528,21 +3534,21 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>84</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F102">
         <v>37.488387000000003</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H102" s="2">
@@ -3554,21 +3560,21 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>48</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F103">
         <v>37.488387000000003</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H103" s="2">
@@ -3583,21 +3589,21 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>66</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F104">
         <v>37.488387000000003</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H104" s="2">
@@ -3612,21 +3618,21 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>55</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F105">
         <v>37.488387000000003</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H105" s="2">
@@ -3641,21 +3647,21 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>63</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F106">
         <v>37.488387000000003</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H106" s="2">
@@ -3670,21 +3676,21 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>60</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>36.306497</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="9">
         <v>127.342583</v>
       </c>
       <c r="H107" s="2">
@@ -3699,21 +3705,21 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <v>64</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F108">
         <v>36.308539000000003</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="9">
         <v>127.369981</v>
       </c>
       <c r="H108" s="2">
@@ -3728,21 +3734,21 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C109">
         <v>32</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F109">
         <v>37.216878000000001</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H109" s="2">
@@ -3757,28 +3763,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C110">
         <v>39</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F110">
         <v>37.488387000000003</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H110" s="2">
         <v>42165</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3786,21 +3792,21 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C111">
         <v>57</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F111">
         <v>37.488387000000003</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H111" s="2">
@@ -3815,21 +3821,21 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C112">
         <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F112">
         <v>37.488387000000003</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H112" s="2">
@@ -3844,21 +3850,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>63</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F113">
         <v>37.488387000000003</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H113" s="2">
@@ -3873,21 +3879,21 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>64</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F114">
         <v>37.488387000000003</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H114" s="2">
@@ -3902,21 +3908,21 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>46</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F115">
         <v>37.488387000000003</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H115" s="2">
@@ -3931,21 +3937,21 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>77</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F116">
         <v>37.488387000000003</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H116" s="2">
@@ -3957,21 +3963,21 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C117">
         <v>56</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F117">
         <v>37.488387000000003</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H117" s="2">
@@ -3986,21 +3992,21 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C118">
         <v>25</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F118">
         <v>37.216878000000001</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H118" s="2">
@@ -4015,21 +4021,21 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>67</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F119">
         <v>36.990842999999998</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="9">
         <v>127.12025</v>
       </c>
       <c r="H119" s="2">
@@ -4038,8 +4044,8 @@
       <c r="I119">
         <v>14</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>12</v>
+      <c r="J119" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4047,12 +4053,12 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>35</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="5"/>
       <c r="H120" s="2">
         <v>42165</v>
       </c>
@@ -4062,21 +4068,21 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>75</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F121">
         <v>37.488387000000003</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H121" s="2">
@@ -4091,21 +4097,21 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>77</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F122">
         <v>36.990842999999998</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="9">
         <v>127.12025</v>
       </c>
       <c r="H122" s="2">
@@ -4120,21 +4126,21 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C123">
         <v>55</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F123">
         <v>37.488387000000003</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H123" s="2">
@@ -4149,21 +4155,21 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>65</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F124">
         <v>37.488387000000003</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H124" s="2">
@@ -4172,8 +4178,8 @@
       <c r="I124">
         <v>14</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>12</v>
+      <c r="J124" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4181,21 +4187,21 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>36</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F125">
         <v>37.488387000000003</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H125" s="2">
@@ -4210,21 +4216,21 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>56</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F126">
         <v>37.488387000000003</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H126" s="2">
@@ -4239,21 +4245,21 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>70</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F127">
         <v>36.990842999999998</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="9">
         <v>127.12025</v>
       </c>
       <c r="H127" s="2">
@@ -4268,21 +4274,21 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C128">
         <v>76</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F128">
         <v>36.306497</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="9">
         <v>127.342583</v>
       </c>
       <c r="H128" s="2">
@@ -4297,21 +4303,21 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>87</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F129">
         <v>36.308539000000003</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="9">
         <v>127.369981</v>
       </c>
       <c r="H129" s="2">
@@ -4326,21 +4332,21 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>86</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F130">
         <v>36.308539000000003</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="9">
         <v>127.369981</v>
       </c>
       <c r="H130" s="2">
@@ -4355,21 +4361,21 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C131">
         <v>65</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F131">
         <v>36.308539000000003</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="9">
         <v>127.369981</v>
       </c>
       <c r="H131" s="2">
@@ -4384,21 +4390,21 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C132">
         <v>59</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F132">
         <v>37.488387000000003</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H132" s="2">
@@ -4413,21 +4419,21 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>55</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F133">
         <v>37.488387000000003</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H133" s="2">
@@ -4442,14 +4448,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C134">
         <v>70</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="5"/>
-      <c r="G134" s="1"/>
       <c r="H134" s="2">
         <v>42167</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>76</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4465,21 +4470,21 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C135">
         <v>68</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F135">
         <v>37.488387000000003</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H135" s="2">
@@ -4494,21 +4499,21 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>33</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F136">
         <v>37.488387000000003</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H136" s="2">
@@ -4523,21 +4528,21 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C137">
         <v>67</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F137">
         <v>37.488387000000003</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H137" s="2">
@@ -4552,21 +4557,21 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>55</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F138">
         <v>37.488387000000003</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H138" s="2">
@@ -4581,21 +4586,21 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <v>37</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F139">
         <v>37.488387000000003</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H139" s="2">
@@ -4610,21 +4615,21 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C140">
         <v>64</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F140">
         <v>37.488387000000003</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H140" s="2">
@@ -4639,21 +4644,21 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C141">
         <v>80</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F141">
         <v>37.488387000000003</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H141" s="2">
@@ -4668,21 +4673,21 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C142">
         <v>42</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F142">
         <v>37.488387000000003</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H142" s="2">
@@ -4694,21 +4699,21 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>31</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F143">
         <v>37.488387000000003</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H143" s="2">
@@ -4723,21 +4728,21 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C144">
         <v>31</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F144">
         <v>36.308539000000003</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="9">
         <v>127.369981</v>
       </c>
       <c r="H144" s="2">
@@ -4752,21 +4757,21 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C145">
         <v>71</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F145">
         <v>37.216878000000001</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H145" s="2">
@@ -4781,12 +4786,12 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C146">
         <v>37</v>
       </c>
-      <c r="E146" s="6"/>
+      <c r="E146" s="5"/>
       <c r="H146" s="2">
         <v>42168</v>
       </c>
@@ -4799,21 +4804,21 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C147">
         <v>55</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F147">
         <v>37.488387000000003</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H147" s="2">
@@ -4828,21 +4833,21 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C148">
         <v>46</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>28</v>
+      <c r="D148" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F148">
         <v>37.503720999999999</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="9">
         <v>127.089854</v>
       </c>
       <c r="H148" s="2">
@@ -4857,21 +4862,21 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C149">
         <v>39</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F149">
         <v>36.306497</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="9">
         <v>127.342583</v>
       </c>
       <c r="H149" s="2">
@@ -4886,21 +4891,21 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C150">
         <v>84</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F150">
         <v>36.308539000000003</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="9">
         <v>127.369981</v>
       </c>
       <c r="H150" s="2">
@@ -4915,21 +4920,21 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C151">
         <v>44</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>29</v>
+      <c r="D151" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F151">
         <v>37.540958000000003</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="9">
         <v>127.07930500000001</v>
       </c>
       <c r="H151" s="2">
@@ -4944,21 +4949,21 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C152">
         <v>38</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F152">
         <v>37.488387000000003</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H152" s="2">
@@ -4970,21 +4975,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C153">
         <v>66</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F153">
         <v>37.488387000000003</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H153" s="2">
@@ -4996,21 +5001,21 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C154">
         <v>61</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>27</v>
+      <c r="D154" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F154">
         <v>36.990842999999998</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="9">
         <v>127.12025</v>
       </c>
       <c r="H154" s="2">
@@ -5025,21 +5030,21 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F155">
         <v>37.488387000000003</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H155" s="2">
@@ -5051,21 +5056,21 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C156">
         <v>42</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F156">
         <v>37.488387000000003</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H156" s="2">
@@ -5077,21 +5082,21 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C157">
         <v>66</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F157">
         <v>37.488387000000003</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H157" s="2">
@@ -5103,21 +5108,21 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C158">
         <v>60</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F158">
         <v>37.488387000000003</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H158" s="2">
@@ -5129,21 +5134,21 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C159">
         <v>50</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F159">
         <v>37.488387000000003</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H159" s="2">
@@ -5155,21 +5160,21 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C160">
         <v>49</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F160">
         <v>37.216878000000001</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="9">
         <v>127.08012100000001</v>
       </c>
       <c r="H160" s="2">
@@ -5184,21 +5189,21 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C161">
         <v>31</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>30</v>
+      <c r="D161" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F161">
         <v>37.553713999999999</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="9">
         <v>127.157663</v>
       </c>
       <c r="H161" s="2">
@@ -5213,21 +5218,21 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C162">
         <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F162">
         <v>36.990842999999998</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162" s="9">
         <v>127.12025</v>
       </c>
       <c r="H162" s="2">
@@ -5242,21 +5247,21 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C163">
         <v>33</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F163">
         <v>37.488387000000003</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163" s="9">
         <v>127.08555200000001</v>
       </c>
       <c r="H163" s="2">
